--- a/project/python/Zadachka.xlsx
+++ b/project/python/Zadachka.xlsx
@@ -405,10 +405,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
-      <selection activeCell="F12" activeCellId="0" pane="topLeft" sqref="F12"/>
+      <selection activeCell="F10" activeCellId="0" pane="topLeft" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
@@ -468,8 +468,10 @@
       <c r="E2" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="F2" s="8" t="n">
-        <v>3.43</v>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
@@ -496,7 +498,7 @@
         <v>1000</v>
       </c>
       <c r="F3" s="8" t="n">
-        <v>4</v>
+        <v>4.29</v>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
@@ -523,18 +525,33 @@
         <v>1000</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>5</v>
+        <v>5.41</v>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>Значение целевой функции: 6280.0</t>
+          <t>Значение целевой функции: 12860.0</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="5" s="6">
+      <c r="B5" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>113</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>6.03</v>
+      </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>x_0 = 10.0</t>
+          <t>x_0 = 45.0</t>
         </is>
       </c>
     </row>
@@ -548,18 +565,24 @@
     <row customHeight="1" ht="14.4" r="7" s="6">
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>x_2 = 15.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+          <t>x_2 = 16.0</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="8" s="6">
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>Время решения: 0.002218999999999971 сек.</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="9" s="6"/>
+          <t>x_3 = 18.0</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="9" s="6">
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>Время решения: 0.0019260000000000388 сек.</t>
+        </is>
+      </c>
+    </row>
     <row customHeight="1" ht="13.8" r="10" s="6"/>
     <row customHeight="1" ht="13.8" r="11" s="6"/>
     <row customHeight="1" ht="13.8" r="12" s="6"/>

--- a/project/python/Zadachka.xlsx
+++ b/project/python/Zadachka.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
-      <selection activeCell="F9" activeCellId="0" pane="topLeft" sqref="F9"/>
+      <selection activeCell="F10" activeCellId="0" pane="topLeft" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
@@ -469,11 +469,11 @@
         <v>1000</v>
       </c>
       <c r="F2" s="8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>Статус: Optimal</t>
+          <t>Статус: Infeasible</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
         <v>1000</v>
       </c>
       <c r="F3" s="8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
@@ -527,21 +527,36 @@
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>Значение целевой функции: 5910.0</t>
+          <t>Значение целевой функции: 109103.20000000003</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="5" s="6">
+      <c r="B5" s="5" t="n">
+        <v>111</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>x_0 = 12.0</t>
+          <t>x_0 = 9.0</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="6" s="6">
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>x_1 = 9.0</t>
+          <t>x_1 = 12.0</t>
         </is>
       </c>
     </row>
@@ -555,14 +570,14 @@
     <row customHeight="1" ht="14.4" r="8" s="6">
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>Время решения: 0.003461999999999854 сек.</t>
+          <t>x_3 = 17.0</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="9" s="6">
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>Время решения: 0.003705999999999765 сек.</t>
+          <t>Время решения: 0.0033289999999999154 сек.</t>
         </is>
       </c>
     </row>

--- a/project/python/Zadachka.xlsx
+++ b/project/python/Zadachka.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
-      <selection activeCell="F10" activeCellId="0" pane="topLeft" sqref="F10"/>
+      <selection activeCell="F9" activeCellId="0" pane="topLeft" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelRow="0" zeroHeight="0"/>
@@ -469,11 +469,11 @@
         <v>1000</v>
       </c>
       <c r="F2" s="8" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>Статус: Infeasible</t>
+          <t>Статус: Optimal</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
         <v>1000</v>
       </c>
       <c r="F3" s="8" t="n">
-        <v>4</v>
+        <v>4.23</v>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>Значение целевой функции: 109103.20000000003</t>
+          <t>Значение целевой функции: 2100.0</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
     <row customHeight="1" ht="13.8" r="9" s="6">
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>Время решения: 0.0033289999999999154 сек.</t>
+          <t>Время решения: 0.0017840000000000078 сек.</t>
         </is>
       </c>
     </row>

--- a/project/python/Zadachka.xlsx
+++ b/project/python/Zadachka.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>Статус: Optimal</t>
+          <t>Статус: Оптимально</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>Сортировка: β/α (max -&gt; min)</t>
+          <t>Сортировка: b/a</t>
         </is>
       </c>
     </row>
@@ -549,35 +549,35 @@
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>x_0 = 9.0</t>
+          <t>Количество решенных ЗЛП: 5</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="6" s="6">
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>x_1 = 12.0</t>
+          <t>x_0 = 9.0</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="14.4" r="7" s="6">
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>x_2 = 15.0</t>
+          <t>x_1 = 12.0</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="14.4" r="8" s="6">
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>x_3 = 17.0</t>
+          <t>x_2 = 15.0</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="9" s="6">
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>Время решения: 0.0017840000000000078 сек.</t>
+          <t>x_3 = 17.0</t>
         </is>
       </c>
     </row>

--- a/project/python/Zadachka.xlsx
+++ b/project/python/Zadachka.xlsx
@@ -527,7 +527,7 @@
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>Значение целевой функции: 2100.0</t>
+          <t>Значение целевой функции: 2150.0</t>
         </is>
       </c>
     </row>
@@ -549,21 +549,21 @@
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>Количество решенных ЗЛП: 5</t>
+          <t>Количество решенных ЗЛП: 9</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="6" s="6">
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>x_0 = 9.0</t>
+          <t>x_0 = 10.0</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="14.4" r="7" s="6">
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>x_1 = 12.0</t>
+          <t>x_1 = 13.0</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
     <row customHeight="1" ht="13.8" r="9" s="6">
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>x_3 = 17.0</t>
+          <t>x_3 = 18.0</t>
         </is>
       </c>
     </row>
